--- a/2022/Realme/Others/RSC Information All/All RSC Bank Information.xlsx
+++ b/2022/Realme/Others/RSC Information All/All RSC Bank Information.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\realme\Others\RSC Information All\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\2022\Realme\Others\RSC Information All\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>RSC Name</t>
   </si>
@@ -211,6 +210,12 @@
   </si>
   <si>
     <t>RM2155</t>
+  </si>
+  <si>
+    <t>02434007495</t>
+  </si>
+  <si>
+    <t>02434006571</t>
   </si>
 </sst>
 </file>
@@ -220,7 +225,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,14 +289,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -314,7 +324,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -404,80 +414,75 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,60 +766,60 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="22" customFormat="1" ht="28.5">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:9" s="22" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:9" s="22" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="49" t="s">
         <v>9</v>
       </c>
     </row>
@@ -822,28 +827,28 @@
       <c r="A3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="28" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="29">
         <v>1735959436</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="30">
         <v>1725899584</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="46">
         <v>44228</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="32" t="s">
         <v>26</v>
       </c>
     </row>
@@ -851,28 +856,28 @@
       <c r="A4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="28" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="29">
         <v>1917426342</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="30">
         <v>1725899584</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="46">
         <v>44228</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="32" t="s">
         <v>25</v>
       </c>
     </row>
@@ -880,57 +885,57 @@
       <c r="A5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="28" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="29">
         <v>1788128128</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="30">
         <v>1725899584</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="46">
         <v>44228</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="32" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="35">
         <v>1733433999</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="36">
         <v>1725899584</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="47">
         <v>44362</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="37" t="s">
         <v>53</v>
       </c>
     </row>
@@ -938,115 +943,115 @@
       <c r="A7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="28" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="29">
         <v>1724950996</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="30">
         <v>1725899584</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="46">
         <v>44362</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="43" customFormat="1" ht="15.75">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:9" s="25" customFormat="1" ht="15.75">
+      <c r="A8" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="35">
         <v>1788914019</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="36">
         <v>1725899584</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="47">
         <v>44428</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="43" customFormat="1" ht="15.75">
-      <c r="A9" s="36" t="s">
+    <row r="9" spans="1:9" s="25" customFormat="1" ht="15.75">
+      <c r="A9" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="35">
         <v>1705424725</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="36">
         <v>1725899584</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="47">
         <v>44428</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="43" customFormat="1" ht="15.75">
-      <c r="A10" s="36" t="s">
+    <row r="10" spans="1:9" s="25" customFormat="1" ht="15.75">
+      <c r="A10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="35">
         <v>1737495544</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="36">
         <v>1725899584</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="47">
         <v>44428</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="37" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1054,57 +1059,57 @@
       <c r="A11" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="28" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="29">
         <v>1858889777</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="30">
         <v>1725899584</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="28" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="46">
         <v>44202</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="31">
         <v>1711427916</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="30">
         <v>1725899584</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="40" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="46">
         <v>44202</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="32" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1112,66 +1117,70 @@
       <c r="A13" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="28" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="29">
         <v>1747566379</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="30">
         <v>1725899584</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="46">
         <v>44503</v>
       </c>
-      <c r="I13" s="35"/>
+      <c r="I13" s="32" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" spans="1:9" s="22" customFormat="1" ht="15.75">
       <c r="A14" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="28" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="29">
         <v>1749152530</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="30">
         <v>1725899584</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="28" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="46">
         <v>44503</v>
       </c>
-      <c r="I14" s="35"/>
+      <c r="I14" s="32" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="1:9" s="22" customFormat="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="44"/>
     </row>
     <row r="16" spans="1:9" s="22" customFormat="1">
       <c r="A16" s="7"/>
@@ -1181,7 +1190,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="15"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="25"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" s="22" customFormat="1">
@@ -1192,7 +1201,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="15"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="25"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" s="22" customFormat="1">
@@ -1203,7 +1212,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="15"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="25"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" s="22" customFormat="1">
@@ -1877,879 +1886,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1048568"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="22" customFormat="1" ht="28.5">
-      <c r="A1" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" s="22" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="43" customFormat="1" ht="15.75">
-      <c r="A3" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="38">
-        <v>1788914019</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="39">
-        <v>1725899584</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="41">
-        <v>44428</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="43" customFormat="1" ht="15.75">
-      <c r="A4" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="38">
-        <v>1705424725</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="39">
-        <v>1725899584</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="41">
-        <v>44428</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="43" customFormat="1" ht="15.75">
-      <c r="A5" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="38">
-        <v>1737495544</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="39">
-        <v>1725899584</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="41">
-        <v>44428</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="1:9" s="22" customFormat="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" s="22" customFormat="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" s="22" customFormat="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" s="22" customFormat="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" s="22" customFormat="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" s="22" customFormat="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" s="22" customFormat="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" s="22" customFormat="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" s="22" customFormat="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" s="22" customFormat="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" s="22" customFormat="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" s="22" customFormat="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" s="22" customFormat="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" s="22" customFormat="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="1:9" s="22" customFormat="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="1:9" s="22" customFormat="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="1:9" s="22" customFormat="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" s="22" customFormat="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="1:9" s="22" customFormat="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" s="22" customFormat="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" s="22" customFormat="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" s="22" customFormat="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" s="22" customFormat="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:9" s="22" customFormat="1">
-      <c r="A30" s="7"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" s="22" customFormat="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="1:9" s="22" customFormat="1">
-      <c r="A32" s="7"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="1:9" s="22" customFormat="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:9" s="22" customFormat="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:9" s="22" customFormat="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="1:9" s="22" customFormat="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="1:9" s="22" customFormat="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="1:9" s="22" customFormat="1">
-      <c r="A38" s="12"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="1"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="1"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="1"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="1"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="1"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="1"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="1"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="1"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="1"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="1"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="1"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="1"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="1"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="1"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="1"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="1"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="1"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="1"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="1"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="1"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="1"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="1"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="1"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="1"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="1"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="1"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="1"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="1"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="1"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="1"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="1"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-    </row>
-    <row r="1048568" spans="8:8">
-      <c r="H1048568" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/2022/Realme/Others/RSC Information All/All RSC Bank Information.xlsx
+++ b/2022/Realme/Others/RSC Information All/All RSC Bank Information.xlsx
@@ -419,9 +419,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -482,6 +479,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,7 +766,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -782,405 +782,405 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="22" customFormat="1" ht="28.5">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" s="22" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="48" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="28">
         <v>1735959436</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="29">
         <v>1725899584</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="45">
         <v>44228</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="31" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <v>1917426342</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="29">
         <v>1725899584</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="45">
         <v>44228</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>1788128128</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <v>1725899584</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="45">
         <v>44228</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="34">
         <v>1733433999</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <v>1725899584</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="46">
         <v>44362</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <v>1724950996</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="29">
         <v>1725899584</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="45">
         <v>44362</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="31" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="25" customFormat="1" ht="15.75">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="34">
         <v>1788914019</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="35">
         <v>1725899584</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="46">
         <v>44428</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="36" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="25" customFormat="1" ht="15.75">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="34">
         <v>1705424725</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="35">
         <v>1725899584</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="46">
         <v>44428</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="25" customFormat="1" ht="15.75">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="34">
         <v>1737495544</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <v>1725899584</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="46">
         <v>44428</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="28">
         <v>1858889777</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="29">
         <v>1725899584</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="45">
         <v>44202</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="31" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="30">
         <v>1711427916</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="29">
         <v>1725899584</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="45">
         <v>44202</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="28">
         <v>1747566379</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="29">
         <v>1725899584</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="45">
         <v>44503</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="31" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="28">
         <v>1749152530</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="29">
         <v>1725899584</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="45">
         <v>44503</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="31" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="22" customFormat="1">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="20"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="24"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="44"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
     </row>
     <row r="16" spans="1:9" s="22" customFormat="1">
       <c r="A16" s="7"/>
